--- a/trunk/documentos/tesis/tabla de linealidad frecuencia voltaje2.xlsx
+++ b/trunk/documentos/tesis/tabla de linealidad frecuencia voltaje2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="17715" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="17715" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -125,23 +125,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="195136512"/>
-        <c:axId val="195134976"/>
+        <c:axId val="56114560"/>
+        <c:axId val="77996416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195136512"/>
+        <c:axId val="56114560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195134976"/>
+        <c:crossAx val="77996416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195134976"/>
+        <c:axId val="77996416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -149,7 +149,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195136512"/>
+        <c:crossAx val="56114560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -162,7 +162,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -368,23 +368,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="196292992"/>
-        <c:axId val="223802112"/>
+        <c:axId val="78020992"/>
+        <c:axId val="78022528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196292992"/>
+        <c:axId val="78020992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223802112"/>
+        <c:crossAx val="78022528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223802112"/>
+        <c:axId val="78022528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +392,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196292992"/>
+        <c:crossAx val="78020992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -401,6 +401,488 @@
       <c:legendPos val="r"/>
       <c:layout/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-VE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2079615048118985E-2"/>
+                  <c:y val="0.30971055701370664"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="54843648"/>
+        <c:axId val="54842112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54843648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54842112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54842112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54843648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-VE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.3917322834645666E-2"/>
+                  <c:y val="-3.75116652085156E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$A$1:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$1:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="168123392"/>
+        <c:axId val="168121088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="168123392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168121088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="168121088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168123392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -415,16 +897,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -445,16 +927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -468,6 +950,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -761,15 +1308,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13">
       <c r="A1">
         <v>1500</v>
       </c>
@@ -781,7 +1328,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -789,11 +1336,24 @@
         <v>124</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C11" si="0">B2/1000</f>
+        <f t="shared" ref="C2:C4" si="0">B2/1000</f>
         <v>0.124</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <f>124-82</f>
+        <v>42</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>444</v>
+      </c>
+      <c r="M2">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2500</v>
       </c>
@@ -804,8 +1364,14 @@
         <f t="shared" si="0"/>
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="K3">
+        <v>1100</v>
+      </c>
+      <c r="L3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -816,8 +1382,22 @@
         <f t="shared" si="0"/>
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="K4">
+        <v>1200</v>
+      </c>
+      <c r="L4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="K5">
+        <v>1300</v>
+      </c>
+      <c r="L5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>500</v>
       </c>
@@ -828,8 +1408,14 @@
         <f>B6/1000</f>
         <v>0.159</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="K6">
+        <v>1400</v>
+      </c>
+      <c r="L6">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>600</v>
       </c>
@@ -840,8 +1426,17 @@
         <f t="shared" ref="C7:C31" si="1">B7/1000</f>
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="K7">
+        <v>1500</v>
+      </c>
+      <c r="L7">
+        <v>564</v>
+      </c>
+      <c r="M7">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>700</v>
       </c>
@@ -852,8 +1447,14 @@
         <f t="shared" si="1"/>
         <v>0.17399999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="K8">
+        <v>1600</v>
+      </c>
+      <c r="L8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>800</v>
       </c>
@@ -864,8 +1465,14 @@
         <f t="shared" si="1"/>
         <v>0.183</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="K9">
+        <v>1700</v>
+      </c>
+      <c r="L9">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>900</v>
       </c>
@@ -876,8 +1483,14 @@
         <f t="shared" si="1"/>
         <v>0.192</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="K10">
+        <v>1800</v>
+      </c>
+      <c r="L10">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -888,8 +1501,14 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="K11">
+        <v>1900</v>
+      </c>
+      <c r="L11">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -900,8 +1519,17 @@
         <f t="shared" si="1"/>
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="K12">
+        <v>2000</v>
+      </c>
+      <c r="L12">
+        <v>688</v>
+      </c>
+      <c r="M12">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -912,8 +1540,14 @@
         <f t="shared" si="1"/>
         <v>0.215</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="K13">
+        <v>2100</v>
+      </c>
+      <c r="L13">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -924,8 +1558,14 @@
         <f t="shared" si="1"/>
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="K14">
+        <v>2200</v>
+      </c>
+      <c r="L14">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -936,8 +1576,14 @@
         <f t="shared" si="1"/>
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="K15">
+        <v>2300</v>
+      </c>
+      <c r="L15">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -948,8 +1594,14 @@
         <f t="shared" si="1"/>
         <v>0.247</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="K16">
+        <v>2400</v>
+      </c>
+      <c r="L16">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -960,8 +1612,17 @@
         <f t="shared" si="1"/>
         <v>0.25700000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="K17">
+        <v>2500</v>
+      </c>
+      <c r="L17">
+        <v>768</v>
+      </c>
+      <c r="M17">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -972,8 +1633,14 @@
         <f t="shared" si="1"/>
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="K18">
+        <v>2600</v>
+      </c>
+      <c r="L18">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -984,8 +1651,14 @@
         <f t="shared" si="1"/>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="K19">
+        <v>2700</v>
+      </c>
+      <c r="L19">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -996,8 +1669,14 @@
         <f t="shared" si="1"/>
         <v>0.28599999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="K20">
+        <v>2800</v>
+      </c>
+      <c r="L20">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -1008,8 +1687,14 @@
         <f t="shared" si="1"/>
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="K21">
+        <v>2900</v>
+      </c>
+      <c r="L21">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -1017,8 +1702,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="K22">
+        <v>3000</v>
+      </c>
+      <c r="L22">
+        <v>776</v>
+      </c>
+      <c r="M22">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -1026,8 +1720,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="K23">
+        <v>3500</v>
+      </c>
+      <c r="L23">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -1035,8 +1735,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="K24">
+        <v>4000</v>
+      </c>
+      <c r="L24">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -1045,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -1054,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -1063,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -1072,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -1081,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -1090,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -1107,13 +1813,509 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C41" si="0">B2/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>106</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>122</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>138</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>146</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>154</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>162</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>172</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>180</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>188</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>196</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>204</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>212</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>220</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>228</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>236</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>244</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>3100</v>
+      </c>
+      <c r="B32">
+        <v>252</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>3200</v>
+      </c>
+      <c r="B33">
+        <v>260</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>3300</v>
+      </c>
+      <c r="B34">
+        <v>268</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>3400</v>
+      </c>
+      <c r="B35">
+        <v>276</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>3500</v>
+      </c>
+      <c r="B36">
+        <v>284</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>3600</v>
+      </c>
+      <c r="B37">
+        <v>292</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>3700</v>
+      </c>
+      <c r="B38">
+        <v>300</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>3800</v>
+      </c>
+      <c r="B39">
+        <v>308</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>3900</v>
+      </c>
+      <c r="B40">
+        <v>316</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41">
+        <v>324</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/documentos/tesis/tabla de linealidad frecuencia voltaje2.xlsx
+++ b/trunk/documentos/tesis/tabla de linealidad frecuencia voltaje2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="17715" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Grafica de Linealidad" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,17 +55,34 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-VE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -78,7 +96,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -124,41 +141,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56114560"/>
-        <c:axId val="77996416"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="59773696"/>
+        <c:axId val="59775232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56114560"/>
+        <c:axId val="59773696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77996416"/>
+        <c:crossAx val="59775232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77996416"/>
+        <c:axId val="59775232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56114560"/>
+        <c:crossAx val="59773696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -170,12 +204,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-VE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -189,7 +235,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -367,41 +412,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78020992"/>
-        <c:axId val="78022528"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46965120"/>
+        <c:axId val="46966656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78020992"/>
+        <c:axId val="46965120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78022528"/>
+        <c:crossAx val="46966656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78022528"/>
+        <c:axId val="46966656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78020992"/>
+        <c:crossAx val="46965120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -413,12 +475,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-VE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -519,37 +593,54 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54843648"/>
-        <c:axId val="54842112"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46983424"/>
+        <c:axId val="59650048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54843648"/>
+        <c:axId val="46983424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54842112"/>
+        <c:crossAx val="59650048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54842112"/>
+        <c:axId val="59650048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54843648"/>
+        <c:crossAx val="46983424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -561,12 +652,43 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-VE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-VE"/>
+              <a:t>Gráfica de linealidad convertidor frecuencia-voltaje</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -575,20 +697,33 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.3917322834645666E-2"/>
-                  <c:y val="-3.75116652085156E-2"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja2!$A$1:$A$41</c:f>
@@ -853,44 +988,106 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="168123392"/>
-        <c:axId val="168121088"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="93493120"/>
+        <c:axId val="93499392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168123392"/>
+        <c:axId val="93493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-VE"/>
+                  <a:t>Frecuencia de entrada (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168121088"/>
+        <c:crossAx val="93499392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168121088"/>
+        <c:axId val="93499392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-VE"/>
+                  <a:t>Voltaje de Salida (mV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168123392"/>
+        <c:crossAx val="93493120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,23 +1187,15 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664677" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1019,7 +1208,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1098,6 +1287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1132,6 +1322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1307,16 +1498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1500</v>
       </c>
@@ -1328,7 +1519,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1353,7 +1544,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2500</v>
       </c>
@@ -1371,7 +1562,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -1389,7 +1580,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K5">
         <v>1300</v>
       </c>
@@ -1397,7 +1588,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1415,7 +1606,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
@@ -1436,7 +1627,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
@@ -1454,7 +1645,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -1472,7 +1663,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -1490,7 +1681,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -1508,7 +1699,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -1529,7 +1720,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -1547,7 +1738,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -1565,7 +1756,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -1583,7 +1774,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -1601,7 +1792,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -1622,7 +1813,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -1640,7 +1831,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -1658,7 +1849,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -1676,7 +1867,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -1694,7 +1885,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -1712,7 +1903,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -1727,7 +1918,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -1742,7 +1933,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -1751,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -1760,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -1769,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -1778,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -1787,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -1796,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -1812,16 +2003,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1833,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1845,7 +2036,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -1857,7 +2048,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1869,7 +2060,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -1881,7 +2072,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1893,7 +2084,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
@@ -1905,7 +2096,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
@@ -1917,7 +2108,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -1929,7 +2120,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -1941,7 +2132,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -1953,7 +2144,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -1965,7 +2156,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -1977,7 +2168,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -1989,7 +2180,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -2001,7 +2192,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -2013,7 +2204,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -2025,7 +2216,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -2037,7 +2228,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -2049,7 +2240,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -2061,7 +2252,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -2073,7 +2264,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -2085,7 +2276,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -2097,7 +2288,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -2109,7 +2300,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -2121,7 +2312,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -2133,7 +2324,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -2145,7 +2336,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -2157,7 +2348,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -2169,7 +2360,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -2181,7 +2372,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -2193,7 +2384,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -2205,7 +2396,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -2217,7 +2408,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -2229,7 +2420,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -2241,7 +2432,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -2253,7 +2444,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -2265,7 +2456,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -2277,7 +2468,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -2289,7 +2480,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -2301,7 +2492,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -2315,17 +2506,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
